--- a/LabFizyka/cw3 cw0 cw 4, cw 5, cw1fizyka.xlsx
+++ b/LabFizyka/cw3 cw0 cw 4, cw 5, cw1fizyka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SzaVii\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w71377\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D166F1-4292-4005-AB7C-E3E09BDC9E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA932FB4-6F42-4E5B-8557-817D710975F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="4" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Cw0" sheetId="2" r:id="rId1"/>
@@ -24,17 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -355,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -558,6 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -649,14 +639,16 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -682,6 +674,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.49</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -691,10 +698,25 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7099999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.21E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7599999999999998E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7948-492E-AC92-FE685030B4F7}"/>
@@ -2583,9 +2605,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2628,7 +2650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2652,7 +2674,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2672,7 +2694,7 @@
         <v>2.5600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2692,7 +2714,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2712,7 +2734,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2732,7 +2754,7 @@
         <v>6.7600000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2752,7 +2774,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2775,7 +2797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2795,7 +2817,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2815,7 +2837,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19">
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -2824,7 +2846,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19">
       <c r="E14" t="s">
         <v>28</v>
       </c>
@@ -2837,17 +2859,17 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +2877,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="D21" t="s">
         <v>36</v>
       </c>
@@ -2867,7 +2889,7 @@
         <v>2.3904999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -2875,7 +2897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -2884,12 +2906,12 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -2902,7 +2924,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="C29">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -2911,7 +2933,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="E30">
         <f>0.1/E29</f>
         <v>2.8867513459481291E-2</v>
@@ -2934,12 +2956,12 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +2993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:25">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:25">
       <c r="E7">
         <v>900</v>
       </c>
@@ -3063,7 +3085,7 @@
         <v>30555608.581911124</v>
       </c>
     </row>
-    <row r="8" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:25">
       <c r="E8">
         <v>900</v>
       </c>
@@ -3120,7 +3142,7 @@
         <v>4825320.2845155653</v>
       </c>
     </row>
-    <row r="9" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:25">
       <c r="E9">
         <v>900</v>
       </c>
@@ -3177,7 +3199,7 @@
         <v>21213.041002265622</v>
       </c>
     </row>
-    <row r="10" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:25">
       <c r="E10">
         <v>900</v>
       </c>
@@ -3234,7 +3256,7 @@
         <v>758298.47209725645</v>
       </c>
     </row>
-    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:25">
       <c r="E11">
         <v>900</v>
       </c>
@@ -3291,7 +3313,7 @@
         <v>9513815.9775250498</v>
       </c>
     </row>
-    <row r="12" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:25">
       <c r="E12">
         <v>900</v>
       </c>
@@ -3348,7 +3370,7 @@
         <v>1569936.5539540569</v>
       </c>
     </row>
-    <row r="13" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:25">
       <c r="E13">
         <v>900</v>
       </c>
@@ -3405,18 +3427,18 @@
         <v>7085174.1699057044</v>
       </c>
     </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:25">
       <c r="Y28">
         <f>(N28-$E$33)^2</f>
         <v>30098144.025008153</v>
       </c>
     </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:25">
       <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:25">
       <c r="L30">
         <v>7</v>
       </c>
@@ -3428,13 +3450,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:25">
       <c r="Y31">
         <f>SUM(Y7:Y28)</f>
         <v>84427511.105919182</v>
       </c>
     </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:25">
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -3446,7 +3468,7 @@
         <v>2010178.8358552186</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6">
       <c r="E33">
         <f>AVERAGE(N7:N28)</f>
         <v>5486.1775422426999</v>
@@ -3469,17 +3491,17 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:22">
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
@@ -3508,7 +3530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:22">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -3542,7 +3564,7 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:22">
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -3570,7 +3592,7 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -3598,7 +3620,7 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:22">
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -3626,7 +3648,7 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:22">
       <c r="C9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3636,7 +3658,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:22">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -3666,7 +3688,7 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -3694,7 +3716,7 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:22">
       <c r="C12" s="2">
         <v>7</v>
       </c>
@@ -3722,7 +3744,7 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:22">
       <c r="C13" s="2">
         <v>8</v>
       </c>
@@ -3750,7 +3772,7 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:22">
       <c r="C14" s="2">
         <v>9</v>
       </c>
@@ -3780,7 +3802,7 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:22">
       <c r="C15" s="2">
         <v>10</v>
       </c>
@@ -3808,7 +3830,7 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:22">
       <c r="C16" s="2">
         <v>11</v>
       </c>
@@ -3836,7 +3858,7 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="C17" s="2">
         <v>12</v>
       </c>
@@ -3864,7 +3886,7 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22">
       <c r="C18" s="2">
         <v>13</v>
       </c>
@@ -3894,7 +3916,7 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="C19" s="2">
         <v>14</v>
       </c>
@@ -3922,7 +3944,7 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="C20" s="2">
         <v>15</v>
       </c>
@@ -3950,7 +3972,7 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="C21" s="2">
         <v>16</v>
       </c>
@@ -3978,7 +4000,7 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22">
       <c r="C22" s="2">
         <v>17</v>
       </c>
@@ -4008,7 +4030,7 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22">
       <c r="C23" s="2">
         <v>18</v>
       </c>
@@ -4036,7 +4058,7 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="C24" s="2">
         <v>19</v>
       </c>
@@ -4064,7 +4086,7 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="C25" s="2">
         <v>20</v>
       </c>
@@ -4092,7 +4114,7 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="U27" t="s">
         <v>52</v>
       </c>
@@ -4100,7 +4122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22">
       <c r="U28" t="s">
         <v>53</v>
       </c>
@@ -4109,7 +4131,7 @@
         <v>30755.555555551622</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" ht="18">
       <c r="E29" s="3" t="s">
         <v>48</v>
       </c>
@@ -4118,18 +4140,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22">
       <c r="E30">
         <f>SQRT((V28/U29))</f>
         <v>8.9964255409917957</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22">
       <c r="B32">
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4148,13 +4170,13 @@
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="C37">
         <f>B33*E30</f>
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:9">
       <c r="F86" s="1">
         <v>1.472</v>
       </c>
@@ -4187,26 +4209,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9358F7-C4ED-4B6D-8B2F-DE67E7CDFF21}">
   <dimension ref="C2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:22">
       <c r="V2" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:22" ht="15">
       <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
@@ -4229,7 +4251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:22" ht="18">
       <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
@@ -4265,7 +4287,7 @@
         <v>0.11219445521836882</v>
       </c>
     </row>
-    <row r="7" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22" ht="15">
       <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
@@ -4287,10 +4309,10 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:22" ht="15">
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:22" ht="15">
       <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
@@ -4311,7 +4333,7 @@
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:22" ht="18">
       <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
@@ -4344,7 +4366,7 @@
         <v>0.205053014757067</v>
       </c>
     </row>
-    <row r="11" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22" ht="15">
       <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
@@ -4363,10 +4385,10 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:22" ht="15">
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:22" ht="15">
       <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
@@ -4381,7 +4403,7 @@
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:22" ht="18">
       <c r="C14" s="5" t="s">
         <v>64</v>
       </c>
@@ -4407,7 +4429,7 @@
         <v>0.15146666666666669</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:22">
       <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
@@ -4418,7 +4440,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>75</v>
       </c>
@@ -4426,7 +4448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23">
         <f xml:space="preserve"> H6 * ((E7/E6)+(F7/F6)+(G7/G6))</f>
         <v>5.1004999999999995E-2</v>
@@ -4436,7 +4458,7 @@
         <v>0.14314238715000002</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27" t="s">
         <v>72</v>
       </c>
@@ -4447,7 +4469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28">
         <f xml:space="preserve"> J6 * ((D7/D6) + (H7/H6))</f>
         <v>0.11219445521836882</v>
@@ -4473,28 +4495,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70F668-E5BC-4EB9-AD60-591AB6212B16}">
   <dimension ref="B2:AG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:33">
       <c r="AG2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:33">
       <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
@@ -4520,75 +4542,101 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+    <row r="7" spans="4:33">
+      <c r="D7" s="9">
+        <v>4.99</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.86</v>
+      </c>
       <c r="G7" s="9">
         <f>O7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="e">
+        <v>5.8760000000000003</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="9">
         <f>R7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7">
+        <v>0.75240639891082362</v>
+      </c>
+      <c r="O7" s="18">
         <f>D7+E7</f>
-        <v>0</v>
+        <v>5.8760000000000003</v>
       </c>
       <c r="P7" t="s">
         <v>85</v>
       </c>
-      <c r="R7" t="e">
+      <c r="R7">
         <f>1/((1/D7)+(1/E7))</f>
-        <v>#DIV/0!</v>
+        <v>0.75240639891082362</v>
       </c>
       <c r="S7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+    <row r="8" spans="4:33">
+      <c r="D8" s="9">
+        <v>5.58</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.718</v>
+      </c>
+      <c r="F8" s="9">
+        <v>7.28</v>
+      </c>
       <c r="G8" s="9">
         <f>O8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="e">
+        <v>7.298</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="I8" s="9">
         <f>R8</f>
-        <v>#DIV/0!</v>
+        <v>1.3135708413263907</v>
       </c>
       <c r="O8">
         <f>D8+E8</f>
-        <v>0</v>
+        <v>7.298</v>
       </c>
       <c r="P8" t="s">
         <v>85</v>
       </c>
-      <c r="R8" t="e">
+      <c r="R8">
         <f>1/((1/D8)+(1/E8))</f>
-        <v>#DIV/0!</v>
+        <v>1.3135708413263907</v>
       </c>
       <c r="S8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:33">
+      <c r="R9">
+        <f>(D8*E8)/(D8+E8)</f>
+        <v>1.3135708413263907</v>
+      </c>
+    </row>
+    <row r="13" spans="4:33">
       <c r="D13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:33">
       <c r="D14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="16" spans="4:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:33" ht="18.75" customHeight="1">
       <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
@@ -4602,124 +4650,164 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15" ht="19.5" customHeight="1">
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="e">
+      <c r="E17" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="G17" s="1">
         <f>E17/F17</f>
-        <v>#DIV/0!</v>
+        <v>17267.080745341613</v>
       </c>
       <c r="N17" t="s">
         <v>21</v>
       </c>
-      <c r="O17" t="e">
+      <c r="O17">
         <f>E17/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.6100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" ht="19.5" customHeight="1">
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="e">
+      <c r="E18" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.1499999999999999E-4</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" ref="G18:G26" si="0">E18/F18</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17209.302325581397</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" ht="19.5" customHeight="1">
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="e">
+      <c r="E19" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17084.870848708488</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" ht="19.5" customHeight="1">
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="e">
+      <c r="E20" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.21E-4</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17289.719626168226</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" ht="19.5" customHeight="1">
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="e">
+      <c r="E21" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17260.638297872341</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" ht="19.5" customHeight="1">
       <c r="D22" s="1">
         <v>6</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="e">
+      <c r="E22" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.2499999999999998E-4</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17435.294117647059</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" ht="19.5" customHeight="1">
       <c r="D23" s="1">
         <v>7</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="e">
+      <c r="E23" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17282.157676348546</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="19.5" customHeight="1">
       <c r="D24" s="1">
         <v>8</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="e">
+      <c r="E24" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17276.119402985074</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" ht="19.5" customHeight="1">
       <c r="D25" s="1">
         <v>9</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="e">
+      <c r="E25" s="1">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.9299999999999999E-4</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17234.401349072516</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" ht="19.5" customHeight="1">
       <c r="D26" s="1">
         <v>10</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="e">
+      <c r="E26" s="1">
+        <v>11.12</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6.4300000000000002E-4</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+        <v>17293.93468118196</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15">
       <c r="D32" s="1" t="s">
         <v>93</v>
       </c>
@@ -4728,20 +4816,20 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="1">
         <f>ABS(F8-G8)</f>
-        <v>0</v>
+        <v>1.7999999999999794E-2</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="10" t="e">
+      <c r="F33" s="10">
         <f>(D33/G8)* 100%</f>
-        <v>#DIV/0!</v>
+        <v>2.4664291586735808E-3</v>
       </c>
       <c r="G33" t="s">
         <v>96</v>
@@ -4751,48 +4839,53 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>97</v>
       </c>
       <c r="D34" s="1">
         <f>ABS(E19-H34)</f>
-        <v>0</v>
+        <v>13.370000000000001</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="10" t="e">
+      <c r="F34" s="10">
         <f>(D34/H34)*100%</f>
-        <v>#DIV/0!</v>
+        <v>0.74277777777777787</v>
       </c>
       <c r="G34" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>18</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>98</v>
       </c>
       <c r="D35" s="1">
         <f>ABS(F21-I35)</f>
-        <v>0</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="10" t="e">
-        <f>(D35/I35)*100%</f>
-        <v>#DIV/0!</v>
+      <c r="F35" s="10">
+        <f>(D35/H35)*100%</f>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <f>E21/G21</f>
+        <v>3.7599999999999998E-4</v>
+      </c>
       <c r="I35" s="1"/>
     </row>
   </sheetData>
